--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_6_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_6_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7917.442859320689</v>
+        <v>1575571.129004817</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7917.442859320689</v>
+        <v>1575571.129004817</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28689.93319321025</v>
+        <v>1734076.041001124</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28689.93319321025</v>
+        <v>1734076.041001124</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1265258081.724285</v>
+        <v>50052699.20125935</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11414.63643303306</v>
+        <v>1134160.785924286</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22274.19594367873</v>
+        <v>2173146.844198676</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33133.75545432437</v>
+        <v>3212132.902473068</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45145.36660810645</v>
+        <v>4188695.252819225</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>57156.97776188851</v>
+        <v>5165257.603165382</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>69168.58891567054</v>
+        <v>6141819.953511535</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>81400.73668856555</v>
+        <v>7125134.117273606</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>93598.95575082782</v>
+        <v>8101696.467619758</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>105576.6381939772</v>
+        <v>9071507.004549989</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>117475.5411845905</v>
+        <v>10052801.40677078</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>128457.1119678633</v>
+        <v>11091787.46504517</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>139438.6827511362</v>
+        <v>12130773.52331957</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>150420.253534409</v>
+        <v>13169759.58159397</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>162443.4044704363</v>
+        <v>14145407.09840894</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>174363.0396685298</v>
+        <v>15100959.81490205</v>
       </c>
     </row>
   </sheetData>
